--- a/pp_timings.xlsx
+++ b/pp_timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xenis656/Desktop/cirrus/PP/performance_programming_coursework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24B70E8-00EA-574B-9244-E4DE35637405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35F51E-58A4-7840-8629-7C225ABB7AAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5D840289-F33C-5548-8427-7CAEAD2EC761}"/>
   </bookViews>
@@ -31,32 +31,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Optimisation</t>
   </si>
   <si>
-    <t>None</t>
+    <t>Time (sec)</t>
   </si>
   <si>
-    <t>Memory accesses</t>
+    <t>Initial (Removed flags)</t>
   </si>
   <si>
-    <t>Cache Misses L1</t>
+    <t>Optimisation flags added</t>
   </si>
   <si>
-    <t>Cache Misses LL</t>
+    <t>Data References</t>
   </si>
   <si>
-    <t>Time (sec)</t>
+    <t>L1 Cache Misses</t>
+  </si>
+  <si>
+    <t>L1 Cache Miss Ratio</t>
+  </si>
+  <si>
+    <t>LL Cache Miss Ratio</t>
+  </si>
+  <si>
+    <t>LL Cache Misses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -112,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,11 +139,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -155,13 +176,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -178,6 +192,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -280,19 +301,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -304,21 +316,12 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -330,19 +333,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5166.8658850000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>977.32157600000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>1242.2465729999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.282319999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -363,19 +357,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -396,21 +381,12 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -422,19 +398,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5166.8658850000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>977.32157600000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>1242.2465729999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.282319999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,19 +709,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -766,21 +724,12 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -792,19 +741,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>6709451927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,19 +774,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -858,21 +798,12 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -884,19 +815,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>6709451927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,19 +848,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -941,21 +863,12 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -967,19 +880,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>6709451927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,19 +913,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1033,21 +937,12 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1059,19 +954,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>6709451927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,19 +987,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1116,21 +1002,12 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1142,19 +1019,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>6709451927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,19 +1052,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1208,21 +1076,12 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1234,19 +1093,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>6709451927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,19 +1126,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1291,21 +1141,12 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1317,19 +1158,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>6709451927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,19 +1191,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1383,21 +1215,12 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1409,19 +1232,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>6709451927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,45 +1556,36 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$E$4:$E$8</c:f>
+              <c:f>'Compiler Flags'!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>15763454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15761780</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,42 +1610,33 @@
             <c:strRef>
               <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-axCORE-AVX2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-Ofast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-Ofast</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Initial (Removed flags)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimisation flags added</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$F$4:$F$8</c:f>
+              <c:f>'Compiler Flags'!$H$4:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2.349439890397772E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3491906895901776E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2064,16 +1869,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>387350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>943542</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1019742</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>520700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2100,16 +1905,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>889737</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>902437</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2138,16 +1943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>469900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>431855</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1435155</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>584200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2178,16 +1983,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2BB03F-325A-A242-B092-3A5C894A9BFF}" name="Table1" displayName="Table1" ref="B3:F8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B3:F8" xr:uid="{CDF3F2D5-CA56-1843-8E8B-9F0C24ADD1AE}"/>
-  <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{0E3FC4F4-5CC4-BC47-A01A-A26677A4B292}" name="Optimisation" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2BB03F-325A-A242-B092-3A5C894A9BFF}" name="Table1" displayName="Table1" ref="B3:H8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B3:H8" xr:uid="{CDF3F2D5-CA56-1843-8E8B-9F0C24ADD1AE}"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{0E3FC4F4-5CC4-BC47-A01A-A26677A4B292}" name="Optimisation" dataDxfId="6">
       <calculatedColumnFormula>"-Ofast"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F8F0FDEB-9ECA-664E-B5F1-3AE5E13A33DE}" name="Time (sec)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4D29004C-2B6F-3640-BD60-501297625748}" name="Memory accesses" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{21A7F7CA-A62C-8840-BFB5-E49DCE4B7927}" name="Cache Misses L1" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{259874D9-5A30-BA41-8E4C-5EE5F3754385}" name="Cache Misses LL" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F8F0FDEB-9ECA-664E-B5F1-3AE5E13A33DE}" name="Time (sec)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4D29004C-2B6F-3640-BD60-501297625748}" name="Data References" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{A401526A-B537-AD4B-B12C-A7ECB2E8EAF9}" name="L1 Cache Misses" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{A7E4717A-00B6-1C47-BBC4-08285A46A791}" name="L1 Cache Miss Ratio" dataDxfId="1">
+      <calculatedColumnFormula>E4/D4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{21A7F7CA-A62C-8840-BFB5-E49DCE4B7927}" name="LL Cache Misses" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{259874D9-5A30-BA41-8E4C-5EE5F3754385}" name="LL Cache Miss Ratio" dataDxfId="0">
+      <calculatedColumnFormula>G4/D4</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2490,123 +2301,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8BD25E-A8C2-B749-BFA1-280562D42822}">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="2:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C4" s="3">
+        <v>1242.2465729999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6709451927</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25741712</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:H8" si="0">E4/D4</f>
+        <v>3.8366340917371923E-3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15763454</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H8" si="1">G4/D4</f>
+        <v>2.349439890397772E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
+      <c r="C5" s="3">
+        <v>81.282319999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6709451076</v>
+      </c>
+      <c r="E5" s="4">
+        <v>25741686</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>3.836630703229827E-3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>15761780</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3491906895901776E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>5166.8658850000002</v>
-      </c>
-      <c r="D4" s="4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="str">
-        <f>"-Ofast"</f>
-        <v>-Ofast</v>
-      </c>
-      <c r="C5" s="3">
-        <v>977.32157600000005</v>
-      </c>
-      <c r="D5" s="4">
-        <v>90</v>
-      </c>
-      <c r="E5" s="4">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
+    <row r="7" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="str">
-        <f>"-axCORE-AVX2"</f>
-        <v>-axCORE-AVX2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>500</v>
-      </c>
-      <c r="D6" s="4">
-        <v>76</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="str">
-        <f>"-Ofast"</f>
-        <v>-Ofast</v>
-      </c>
-      <c r="C7" s="3">
-        <v>400</v>
-      </c>
-      <c r="D7" s="4">
-        <v>53</v>
-      </c>
-      <c r="E7" s="4">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4">
+    <row r="8" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="str">
-        <f>"-Ofast"</f>
-        <v>-Ofast</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4">
-        <v>12</v>
-      </c>
       <c r="E8" s="4">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/pp_timings.xlsx
+++ b/pp_timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xenis656/Desktop/cirrus/PP/performance_programming_coursework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35F51E-58A4-7840-8629-7C225ABB7AAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEE6EEE-6ABA-864A-8AD6-1EC0D906196A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5D840289-F33C-5548-8427-7CAEAD2EC761}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Optimisation</t>
   </si>
@@ -59,6 +59,45 @@
   <si>
     <t>LL Cache Misses</t>
   </si>
+  <si>
+    <t>Memory allocation kind</t>
+  </si>
+  <si>
+    <t>Array Interchange</t>
+  </si>
+  <si>
+    <t>Memory Alignment</t>
+  </si>
+  <si>
+    <t>Initial (Removed flags) THIS IS THE DATA</t>
+  </si>
+  <si>
+    <t>Array Padding</t>
+  </si>
+  <si>
+    <t>Loop Interchange</t>
+  </si>
+  <si>
+    <t>Routine inlining</t>
+  </si>
+  <si>
+    <t>Loop Fusion</t>
+  </si>
+  <si>
+    <t>Loop Reversal</t>
+  </si>
+  <si>
+    <t>Conditionals</t>
+  </si>
+  <si>
+    <t>Data Flow</t>
+  </si>
+  <si>
+    <t>Other Optimisations</t>
+  </si>
+  <si>
+    <t>Memory Accesses</t>
+  </si>
 </sst>
 </file>
 
@@ -68,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,16 +131,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,11 +170,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -130,16 +200,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -147,6 +235,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="0.0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -156,23 +260,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -192,13 +287,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -297,14 +385,29 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -314,29 +417,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$C$4:$C$8</c:f>
+              <c:f>'Compiler Flags'!$C$4:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1242.2465729999999</c:v>
+                  <c:v>81.282319999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>81.282319999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.969571000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.034177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.033396999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.122900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.122724000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.028813999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.527833000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.531123000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.043382000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.043382000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.084372000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.191392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,14 +528,29 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -379,29 +569,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$C$4:$C$8</c:f>
+              <c:f>'Compiler Flags'!$C$4:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1242.2465729999999</c:v>
+                  <c:v>81.282319999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>81.282319999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.969571000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.034177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.033396999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.122900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.122724000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.028813999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.527833000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.531123000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.043382000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.043382000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.084372000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.191392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,6 +734,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38658334257513588"/>
+              <c:y val="0.86341385292940076"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -529,6 +799,7 @@
         <c:axId val="1819408639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -581,7 +852,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -705,14 +976,29 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -722,38 +1008,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$8</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6709451927</c:v>
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1479760028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1679160292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1679165963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1679160229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1658347606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1658347344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1343470127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1343397314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1343472251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1049927848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1049925847</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>882153692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,14 +1119,29 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -796,38 +1160,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$8</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6709451927</c:v>
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1479760028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1679160292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1679165963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1679160229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1658347606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1658347344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1343470127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1343397314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1343472251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1049927848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1049925847</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>882153692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,14 +1271,29 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -861,38 +1303,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$8</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6709451927</c:v>
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1479760028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1679160292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1679165963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1679160229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1658347606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1658347344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1343470127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1343397314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1343472251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1049927848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1049925847</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>882153692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,14 +1414,29 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -935,38 +1455,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$8</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6709451927</c:v>
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1479760028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1679160292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1679165963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1679160229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1658347606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1658347344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1343470127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1343397314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1343472251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1049927848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1049925847</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>882153692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,14 +1566,29 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1000,38 +1598,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$8</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6709451927</c:v>
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1479760028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1679160292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1679165963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1679160229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1658347606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1658347344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1343470127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1343397314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1343472251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1049927848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1049925847</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>882153692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,14 +1709,29 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1074,38 +1750,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$8</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6709451927</c:v>
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1479760028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1679160292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1679165963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1679160229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1658347606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1658347344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1343470127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1343397314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1343472251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1049927848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1049925847</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>882153692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,14 +1861,29 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1139,38 +1893,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$8</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6709451927</c:v>
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1479760028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1679160292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1679165963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1679160229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1658347606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1658347344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1343470127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1343397314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1343472251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1049927848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1049925847</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>882153692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,14 +2004,29 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1213,38 +2045,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$8</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6709451927</c:v>
+                  <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1479760028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1679160292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1679165963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1679160229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1658347606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1658347344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1343470127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1343397314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1343472251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1049927848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1049925847</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>882153692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1315,6 +2210,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40911002881864417"/>
+              <c:y val="0.85408193541024768"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1424,7 +2327,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1554,38 +2457,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$G$4:$G$8</c:f>
+              <c:f>'Compiler Flags'!$G$4:$G$17</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>15763454</c:v>
+                  <c:v>15761780</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15761780</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>73489814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>68248087</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>68248238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68248004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68248006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68248004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57764160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57764160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57764241</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21056970</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21056883</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,38 +2574,101 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$8</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Optimisation flags added</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory allocation kind</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Array Interchange</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memory Alignment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Array Padding</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Loop Interchange</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Routine inlining</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Loop Fusion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Loop Reversal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conditionals</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Data Flow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Other Optimisations</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memory Accesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$H$4:$H$8</c:f>
+              <c:f>'Compiler Flags'!$H$4:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.349439890397772E-3</c:v>
+                  <c:v>2.3491906895901776E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.3491906895901776E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.9663332303499688E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.064417633334555E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.0644128992507453E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0644128428794508E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1154222283117645E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1154227578996262E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2996237012719228E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2998567436468758E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2996229328148589E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0055635289711833E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0055590649727093E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1528519635782469E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1805,7 +2834,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1870,15 +2899,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>387350</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1019742</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4457700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1905,16 +2934,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5105400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>902437</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>571500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762737</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1943,16 +2972,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1308100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>469900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1435155</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>584200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1270055</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1983,20 +3012,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2BB03F-325A-A242-B092-3A5C894A9BFF}" name="Table1" displayName="Table1" ref="B3:H8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B3:H8" xr:uid="{CDF3F2D5-CA56-1843-8E8B-9F0C24ADD1AE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2BB03F-325A-A242-B092-3A5C894A9BFF}" name="Table1" displayName="Table1" ref="B3:H17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="B3:H17" xr:uid="{CDF3F2D5-CA56-1843-8E8B-9F0C24ADD1AE}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{0E3FC4F4-5CC4-BC47-A01A-A26677A4B292}" name="Optimisation" dataDxfId="6">
       <calculatedColumnFormula>"-Ofast"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F8F0FDEB-9ECA-664E-B5F1-3AE5E13A33DE}" name="Time (sec)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4D29004C-2B6F-3640-BD60-501297625748}" name="Data References" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{A401526A-B537-AD4B-B12C-A7ECB2E8EAF9}" name="L1 Cache Misses" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{A7E4717A-00B6-1C47-BBC4-08285A46A791}" name="L1 Cache Miss Ratio" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{F8F0FDEB-9ECA-664E-B5F1-3AE5E13A33DE}" name="Time (sec)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4D29004C-2B6F-3640-BD60-501297625748}" name="Data References" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{A401526A-B537-AD4B-B12C-A7ECB2E8EAF9}" name="L1 Cache Misses" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{A7E4717A-00B6-1C47-BBC4-08285A46A791}" name="L1 Cache Miss Ratio" dataDxfId="5">
       <calculatedColumnFormula>E4/D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{21A7F7CA-A62C-8840-BFB5-E49DCE4B7927}" name="LL Cache Misses" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{259874D9-5A30-BA41-8E4C-5EE5F3754385}" name="LL Cache Miss Ratio" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{21A7F7CA-A62C-8840-BFB5-E49DCE4B7927}" name="LL Cache Misses" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{259874D9-5A30-BA41-8E4C-5EE5F3754385}" name="LL Cache Miss Ratio" dataDxfId="4">
       <calculatedColumnFormula>G4/D4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2301,24 +3330,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8BD25E-A8C2-B749-BFA1-280562D42822}">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="74.1640625" customWidth="1"/>
     <col min="3" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="5"/>
+    <row r="1" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1242.2465729999999</v>
+      </c>
+      <c r="D1" s="5">
+        <v>6709451927</v>
+      </c>
+      <c r="E1" s="5">
+        <v>25741712</v>
+      </c>
+      <c r="F1" s="8">
+        <f t="shared" ref="F1" si="0">E1/D1</f>
+        <v>3.8366340917371923E-3</v>
+      </c>
+      <c r="G1" s="5">
+        <v>15763454</v>
+      </c>
+      <c r="H1" s="10">
+        <f t="shared" ref="H1" si="1">G1/D1</f>
+        <v>2.349439890397772E-3</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2341,117 +3395,354 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
-        <v>1242.2465729999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6709451927</v>
-      </c>
-      <c r="E4" s="4">
-        <v>25741712</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:H8" si="0">E4/D4</f>
-        <v>3.8366340917371923E-3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>15763454</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" ref="H4:H8" si="1">G4/D4</f>
-        <v>2.349439890397772E-3</v>
+      <c r="C4" s="6">
+        <v>81.282319999999999</v>
+      </c>
+      <c r="D4" s="12">
+        <v>6709451076</v>
+      </c>
+      <c r="E4" s="12">
+        <v>25741686</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F10" si="2">E4/D4</f>
+        <v>3.836630703229827E-3</v>
+      </c>
+      <c r="G4" s="12">
+        <v>15761780</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H10" si="3">G4/D4</f>
+        <v>2.3491906895901776E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>81.282319999999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="12">
         <v>6709451076</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="12">
         <v>25741686</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
         <v>3.836630703229827E-3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="12">
         <v>15761780</v>
       </c>
-      <c r="H5" s="6">
-        <f t="shared" si="1"/>
+      <c r="H5" s="7">
+        <f t="shared" si="3"/>
         <v>2.3491906895901776E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="6" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>73.969571000000002</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1479760028</v>
+      </c>
+      <c r="E6" s="12">
+        <v>115025410</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>7.7732475417291114E-2</v>
+      </c>
+      <c r="G6" s="12">
+        <v>73489814</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="3"/>
+        <v>4.9663332303499688E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="7" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>66.034177</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1679160292</v>
+      </c>
+      <c r="E7" s="12">
+        <v>109468569</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
+        <v>6.5192447392628083E-2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>68248087</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="3"/>
+        <v>4.064417633334555E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="8" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
+        <v>66.033396999999994</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1679165963</v>
+      </c>
+      <c r="E8" s="12">
+        <v>109430721</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F9" si="4">E8/D8</f>
+        <v>6.5169687458701775E-2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>68248238</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:H9" si="5">G8/D8</f>
+        <v>4.0644128992507453E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <v>66.122900000000001</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1679160229</v>
+      </c>
+      <c r="E9" s="12">
+        <v>109438025</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="4"/>
+        <v>6.5174259793643552E-2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>68248004</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="5"/>
+        <v>4.0644128428794508E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6">
+        <v>66.122724000000005</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1658347606</v>
+      </c>
+      <c r="E10" s="12">
+        <v>109448340</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
+        <v>6.5998430970689984E-2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>68248006</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="3"/>
+        <v>4.1154222283117645E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>66.028813999999997</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1658347344</v>
+      </c>
+      <c r="E11" s="12">
+        <v>109448276</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" ref="F11:F12" si="6">E11/D11</f>
+        <v>6.5998402805051926E-2</v>
+      </c>
+      <c r="G11" s="12">
+        <v>68248004</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" ref="H11:H12" si="7">G11/D11</f>
+        <v>4.1154227578996262E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>50.527833000000001</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1343470127</v>
+      </c>
+      <c r="E12" s="12">
+        <v>98922904</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="6"/>
+        <v>7.3632380811397086E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>57764160</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="7"/>
+        <v>4.2996237012719228E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6">
+        <v>50.531123000000001</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1343397314</v>
+      </c>
+      <c r="E13" s="12">
+        <v>98922649</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" ref="F13" si="8">E13/D13</f>
+        <v>7.3636181916617999E-2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>57764160</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13" si="9">G13/D13</f>
+        <v>4.2998567436468758E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6">
+        <v>47.043382000000001</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1343472251</v>
+      </c>
+      <c r="E14" s="12">
+        <v>98922984</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14" si="10">E14/D14</f>
+        <v>7.3632323947418837E-2</v>
+      </c>
+      <c r="G14" s="12">
+        <v>57764241</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" ref="H14" si="11">G14/D14</f>
+        <v>4.2996229328148589E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6">
+        <v>47.043382000000001</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1049927848</v>
+      </c>
+      <c r="E15" s="12">
+        <v>62786942</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" ref="F15" si="12">E15/D15</f>
+        <v>5.980119692948653E-2</v>
+      </c>
+      <c r="G15" s="12">
+        <v>21056970</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" ref="H15" si="13">G15/D15</f>
+        <v>2.0055635289711833E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6">
+        <v>41.084372000000002</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1049925847</v>
+      </c>
+      <c r="E16" s="12">
+        <v>62786869</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" ref="F16" si="14">E16/D16</f>
+        <v>5.9801241372810968E-2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>21056883</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" ref="H16:H17" si="15">G16/D16</f>
+        <v>2.0055590649727093E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6">
+        <v>35.191392</v>
+      </c>
+      <c r="D17" s="12">
+        <v>882153692</v>
+      </c>
+      <c r="E17" s="12">
+        <v>41367720</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ref="F17" si="16">E17/D17</f>
+        <v>4.6894005404219292E-2</v>
+      </c>
+      <c r="G17" s="12">
+        <v>27813</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17" si="17">G17/D17</f>
+        <v>3.1528519635782469E-5</v>
       </c>
     </row>
   </sheetData>

--- a/pp_timings.xlsx
+++ b/pp_timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xenis656/Desktop/cirrus/PP/performance_programming_coursework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEE6EEE-6ABA-864A-8AD6-1EC0D906196A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F6AF6-F0F4-BD40-852A-961F36F2211E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5D840289-F33C-5548-8427-7CAEAD2EC761}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Optimisation</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Memory Alignment</t>
   </si>
   <si>
-    <t>Initial (Removed flags) THIS IS THE DATA</t>
-  </si>
-  <si>
     <t>Array Padding</t>
   </si>
   <si>
@@ -98,6 +95,12 @@
   <si>
     <t>Memory Accesses</t>
   </si>
+  <si>
+    <t>Data Scope</t>
+  </si>
+  <si>
+    <t>Vectorisation</t>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +108,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -153,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,29 +173,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,16 +197,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -236,7 +212,15 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -252,22 +236,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -287,6 +256,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -417,9 +393,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -461,18 +437,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$C$4:$C$17</c:f>
+              <c:f>'Compiler Flags'!$C$4:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>81.282319999999999</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>1242.2465729999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>81.282319999999999</c:v>
@@ -511,7 +493,13 @@
                   <c:v>41.084372000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.191392</c:v>
+                  <c:v>34.812057000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.812057000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.028865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,9 +557,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -613,18 +601,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$C$4:$C$17</c:f>
+              <c:f>'Compiler Flags'!$C$4:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>81.282319999999999</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>1242.2465729999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>81.282319999999999</c:v>
@@ -663,7 +657,13 @@
                   <c:v>41.084372000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.191392</c:v>
+                  <c:v>34.812057000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.812057000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.028865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,9 +1008,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -1052,18 +1052,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6709451076</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>6709451927</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
@@ -1103,6 +1109,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>882153692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>882176295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619124829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,9 +1172,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -1204,18 +1216,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6709451076</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>6709451927</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
@@ -1255,6 +1273,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>882153692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>882176295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619124829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,9 +1327,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -1347,18 +1371,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6709451076</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>6709451927</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
@@ -1398,6 +1428,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>882153692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>882176295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619124829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,9 +1491,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -1499,18 +1535,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6709451076</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>6709451927</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
@@ -1550,6 +1592,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>882153692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>882176295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619124829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,9 +1646,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -1642,18 +1690,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6709451076</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>6709451927</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
@@ -1693,6 +1747,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>882153692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>882176295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619124829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,9 +1810,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -1794,18 +1854,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6709451076</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>6709451927</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
@@ -1845,6 +1911,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>882153692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>882176295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619124829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,9 +1965,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -1937,18 +2009,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6709451076</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>6709451927</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
@@ -1988,6 +2066,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>882153692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>882176295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619124829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,9 +2129,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -2089,18 +2173,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$D$4:$D$17</c:f>
+              <c:f>'Compiler Flags'!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6709451076</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>6709451927</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6709451076</c:v>
@@ -2140,6 +2230,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>882153692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>882176295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619124829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,9 +2553,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -2501,18 +2597,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$G$4:$G$17</c:f>
+              <c:f>'Compiler Flags'!$G$4:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>15761780</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>15763454</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15761780</c:v>
@@ -2552,6 +2654,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>27813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27788</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,9 +2682,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Compiler Flags'!$B$4:$B$17</c:f>
+              <c:f>'Compiler Flags'!$B$4:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Initial (Removed flags)</c:v>
                 </c:pt>
@@ -2618,18 +2726,24 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Memory Accesses</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Data Scope</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vectorisation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compiler Flags'!$H$4:$H$17</c:f>
+              <c:f>'Compiler Flags'!$H$4:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.3491906895901776E-3</c:v>
+                  <c:v>2.349439890397772E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.3491906895901776E-3</c:v>
@@ -2669,6 +2783,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3.1528519635782469E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1499372809603776E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8167992306443261E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3012,20 +3132,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2BB03F-325A-A242-B092-3A5C894A9BFF}" name="Table1" displayName="Table1" ref="B3:H17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="B3:H17" xr:uid="{CDF3F2D5-CA56-1843-8E8B-9F0C24ADD1AE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D2BB03F-325A-A242-B092-3A5C894A9BFF}" name="Table1" displayName="Table1" ref="B3:H19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B3:H19" xr:uid="{CDF3F2D5-CA56-1843-8E8B-9F0C24ADD1AE}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{0E3FC4F4-5CC4-BC47-A01A-A26677A4B292}" name="Optimisation" dataDxfId="6">
       <calculatedColumnFormula>"-Ofast"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F8F0FDEB-9ECA-664E-B5F1-3AE5E13A33DE}" name="Time (sec)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4D29004C-2B6F-3640-BD60-501297625748}" name="Data References" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{A401526A-B537-AD4B-B12C-A7ECB2E8EAF9}" name="L1 Cache Misses" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{A7E4717A-00B6-1C47-BBC4-08285A46A791}" name="L1 Cache Miss Ratio" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{F8F0FDEB-9ECA-664E-B5F1-3AE5E13A33DE}" name="Time (sec)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4D29004C-2B6F-3640-BD60-501297625748}" name="Data References" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{A401526A-B537-AD4B-B12C-A7ECB2E8EAF9}" name="L1 Cache Misses" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{A7E4717A-00B6-1C47-BBC4-08285A46A791}" name="L1 Cache Miss Ratio" dataDxfId="2">
       <calculatedColumnFormula>E4/D4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{21A7F7CA-A62C-8840-BFB5-E49DCE4B7927}" name="LL Cache Misses" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{259874D9-5A30-BA41-8E4C-5EE5F3754385}" name="LL Cache Miss Ratio" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{259874D9-5A30-BA41-8E4C-5EE5F3754385}" name="LL Cache Miss Ratio" dataDxfId="0">
       <calculatedColumnFormula>G4/D4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3330,10 +3450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8BD25E-A8C2-B749-BFA1-280562D42822}">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3344,31 +3464,6 @@
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4">
-        <v>1242.2465729999999</v>
-      </c>
-      <c r="D1" s="5">
-        <v>6709451927</v>
-      </c>
-      <c r="E1" s="5">
-        <v>25741712</v>
-      </c>
-      <c r="F1" s="8">
-        <f t="shared" ref="F1" si="0">E1/D1</f>
-        <v>3.8366340917371923E-3</v>
-      </c>
-      <c r="G1" s="5">
-        <v>15763454</v>
-      </c>
-      <c r="H1" s="10">
-        <f t="shared" ref="H1" si="1">G1/D1</f>
-        <v>2.349439890397772E-3</v>
-      </c>
-    </row>
     <row r="2" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" s="3"/>
     </row>
@@ -3399,25 +3494,25 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
-        <v>81.282319999999999</v>
-      </c>
-      <c r="D4" s="12">
-        <v>6709451076</v>
-      </c>
-      <c r="E4" s="12">
-        <v>25741686</v>
+      <c r="C4" s="4">
+        <v>1242.2465729999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6709451927</v>
+      </c>
+      <c r="E4" s="5">
+        <v>25741712</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F10" si="2">E4/D4</f>
-        <v>3.836630703229827E-3</v>
-      </c>
-      <c r="G4" s="12">
-        <v>15761780</v>
+        <f t="shared" ref="F4:F10" si="0">E4/D4</f>
+        <v>3.8366340917371923E-3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>15763454</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H10" si="3">G4/D4</f>
-        <v>2.3491906895901776E-3</v>
+        <f t="shared" ref="H4:H10" si="1">G4/D4</f>
+        <v>2.349439890397772E-3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -3427,21 +3522,21 @@
       <c r="C5" s="6">
         <v>81.282319999999999</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>6709451076</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>25741686</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.836630703229827E-3</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <v>15761780</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.3491906895901776E-3</v>
       </c>
     </row>
@@ -3452,21 +3547,21 @@
       <c r="C6" s="6">
         <v>73.969571000000002</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>1479760028</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>115025410</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.7732475417291114E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>73489814</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.9663332303499688E-2</v>
       </c>
     </row>
@@ -3477,21 +3572,21 @@
       <c r="C7" s="6">
         <v>66.034177</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>1679160292</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>109468569</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.5192447392628083E-2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>68248087</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.064417633334555E-2</v>
       </c>
     </row>
@@ -3502,247 +3597,297 @@
       <c r="C8" s="6">
         <v>66.033396999999994</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>1679165963</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>109430721</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ref="F8:F9" si="4">E8/D8</f>
+        <f t="shared" ref="F8:F9" si="2">E8/D8</f>
         <v>6.5169687458701775E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <v>68248238</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H9" si="5">G8/D8</f>
+        <f t="shared" ref="H8:H9" si="3">G8/D8</f>
         <v>4.0644128992507453E-2</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6">
         <v>66.122900000000001</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>1679160229</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>109438025</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6.5174259793643552E-2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="9">
         <v>68248004</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.0644128428794508E-2</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
         <v>66.122724000000005</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>1658347606</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>109448340</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.5998430970689984E-2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <v>68248006</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.1154222283117645E-2</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6">
         <v>66.028813999999997</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>1658347344</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>109448276</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" ref="F11:F12" si="6">E11/D11</f>
+        <f t="shared" ref="F11:F12" si="4">E11/D11</f>
         <v>6.5998402805051926E-2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>68248004</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" ref="H11:H12" si="7">G11/D11</f>
+        <f t="shared" ref="H11:H12" si="5">G11/D11</f>
         <v>4.1154227578996262E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6">
         <v>50.527833000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>1343470127</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>98922904</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>7.3632380811397086E-2</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <v>57764160</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.2996237012719228E-2</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>50.531123000000001</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>1343397314</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>98922649</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" ref="F13" si="8">E13/D13</f>
+        <f t="shared" ref="F13" si="6">E13/D13</f>
         <v>7.3636181916617999E-2</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="9">
         <v>57764160</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" ref="H13" si="9">G13/D13</f>
+        <f t="shared" ref="H13" si="7">G13/D13</f>
         <v>4.2998567436468758E-2</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6">
         <v>47.043382000000001</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <v>1343472251</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>98922984</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ref="F14" si="10">E14/D14</f>
+        <f t="shared" ref="F14" si="8">E14/D14</f>
         <v>7.3632323947418837E-2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <v>57764241</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" ref="H14" si="11">G14/D14</f>
+        <f t="shared" ref="H14" si="9">G14/D14</f>
         <v>4.2996229328148589E-2</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6">
         <v>47.043382000000001</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <v>1049927848</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>62786942</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" ref="F15" si="12">E15/D15</f>
+        <f t="shared" ref="F15" si="10">E15/D15</f>
         <v>5.980119692948653E-2</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="9">
         <v>21056970</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" ref="H15" si="13">G15/D15</f>
+        <f t="shared" ref="H15" si="11">G15/D15</f>
         <v>2.0055635289711833E-2</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6">
         <v>41.084372000000002</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <v>1049925847</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>62786869</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" ref="F16" si="14">E16/D16</f>
+        <f t="shared" ref="F16" si="12">E16/D16</f>
         <v>5.9801241372810968E-2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="9">
         <v>21056883</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" ref="H16:H17" si="15">G16/D16</f>
+        <f t="shared" ref="H16" si="13">G16/D16</f>
         <v>2.0055590649727093E-2</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6">
+        <v>34.812057000000003</v>
+      </c>
+      <c r="D17" s="9">
+        <v>882153692</v>
+      </c>
+      <c r="E17" s="9">
+        <v>41367720</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ref="F17" si="14">E17/D17</f>
+        <v>4.6894005404219292E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>27813</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17" si="15">G17/D17</f>
+        <v>3.1528519635782469E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6">
-        <v>35.191392</v>
-      </c>
-      <c r="D17" s="12">
-        <v>882153692</v>
-      </c>
-      <c r="E17" s="12">
-        <v>41367720</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" ref="F17" si="16">E17/D17</f>
-        <v>4.6894005404219292E-2</v>
-      </c>
-      <c r="G17" s="12">
-        <v>27813</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" ref="H17" si="17">G17/D17</f>
-        <v>3.1528519635782469E-5</v>
+      <c r="C18" s="6">
+        <v>34.812057000000003</v>
+      </c>
+      <c r="D18" s="9">
+        <v>882176295</v>
+      </c>
+      <c r="E18" s="9">
+        <v>41390134</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ref="F18" si="16">E18/D18</f>
+        <v>4.6918211512359899E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>27788</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18" si="17">G18/D18</f>
+        <v>3.1499372809603776E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>31.028865</v>
+      </c>
+      <c r="D19" s="9">
+        <v>619124829</v>
+      </c>
+      <c r="E19" s="9">
+        <v>42514248</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" ref="F19" si="18">E19/D19</f>
+        <v>6.8668297584944693E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>29822</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" ref="H19" si="19">G19/D19</f>
+        <v>4.8167992306443261E-5</v>
       </c>
     </row>
   </sheetData>
